--- a/PNR Raw Data/PNR_GPS Coordinates 2015.xlsx
+++ b/PNR Raw Data/PNR_GPS Coordinates 2015.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/PNR_Beetles/PNR Raw Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_BACC23F84A756851D0BA5286352EB1FA414F9DCE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFA455F7-3E31-42B2-BBEC-2B522CDF692B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="1" r:id="rId1"/>
+    <sheet name="2015 plots" sheetId="2" r:id="rId2"/>
+    <sheet name="2015 traps" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>1-4</t>
   </si>
@@ -181,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,17 +230,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,14 +249,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +297,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -360,7 +369,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -533,27 +542,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="26.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -563,7 +571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -577,7 +585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -591,7 +599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -605,7 +613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -619,7 +627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -633,7 +641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -647,7 +655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -661,7 +669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -675,7 +683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -689,7 +697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -703,7 +711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -717,7 +725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
@@ -731,7 +739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -745,7 +753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C15" s="1">
         <v>54</v>
       </c>
@@ -753,7 +761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C16" s="1">
         <v>55</v>
       </c>
@@ -761,7 +769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" s="1">
         <v>56</v>
       </c>
@@ -769,7 +777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C18" s="1">
         <v>57</v>
       </c>
@@ -777,7 +785,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" s="1">
         <v>58</v>
       </c>
@@ -785,7 +793,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C20" s="1">
         <v>59</v>
       </c>
@@ -793,7 +801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" s="1">
         <v>60</v>
       </c>
@@ -801,7 +809,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" s="1">
         <v>61</v>
       </c>
@@ -809,7 +817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C23" s="1">
         <v>62</v>
       </c>
@@ -817,7 +825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C24" s="1">
         <v>63</v>
       </c>
@@ -825,7 +833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C25" s="1">
         <v>64</v>
       </c>
@@ -833,7 +841,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C26" s="1">
         <v>65</v>
       </c>
@@ -845,4 +853,360 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD4D83D-9852-4675-82A6-E9365F00D8E0}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECB4922-D0D8-4E6F-85CE-232124E7EBEE}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>63</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>